--- a/Corrected_Bridge_Boundaries.xlsx
+++ b/Corrected_Bridge_Boundaries.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40e18d55561e23ac/Desktop/Key_bridge_filter_plot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natal\JHU-Key-Bridge-internal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{FCC5F163-AA68-4026-A938-8964A114F1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11E6C64A-F87C-4B2F-AEAB-F69D5F2A0C67}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6EDCBB-D9F3-486E-B465-CAE2F3E0BA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcOnSave="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4625,9 +4625,6 @@
     <t>W SHORE EXPY OVER FRESH KILLS</t>
   </si>
   <si>
-    <t>VERAZZANO NARROWS BRIDGE(NY)</t>
-  </si>
-  <si>
     <t>SAN FRANCISCO OAKLAND BAY BRIDGE(CA)</t>
   </si>
   <si>
@@ -4659,6 +4656,9 @@
   </si>
   <si>
     <t>GOETHALS BRIDGE (NY)</t>
+  </si>
+  <si>
+    <t>VERRAZZANO NARROWS BRIDGE(NY)</t>
   </si>
 </sst>
 </file>
@@ -5024,8 +5024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EC241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DT103" zoomScale="113" workbookViewId="0">
-      <selection activeCell="DZ124" sqref="DZ124"/>
+    <sheetView tabSelected="1" topLeftCell="DT105" zoomScale="113" workbookViewId="0">
+      <selection activeCell="DY113" sqref="DY113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -44050,7 +44050,7 @@
         <v>-74.141261</v>
       </c>
       <c r="DY104" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="DZ104">
         <v>-74.141059875488281</v>
@@ -47063,7 +47063,7 @@
         <v>-74.053507999999994</v>
       </c>
       <c r="DY112" t="s">
-        <v>1529</v>
+        <v>1540</v>
       </c>
       <c r="DZ112">
         <v>-74.053619384765625</v>
@@ -49322,7 +49322,7 @@
         <v>-74.194338999999999</v>
       </c>
       <c r="DY118" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="DZ118">
         <v>-74.200355529785156</v>
@@ -61011,7 +61011,7 @@
         <v>-122.38715000000001</v>
       </c>
       <c r="DY150" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="DZ150">
         <v>-122.3873748779297</v>
@@ -62815,7 +62815,7 @@
         <v>-122.39039200000001</v>
       </c>
       <c r="DY155" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="DZ155">
         <v>-122.390022277832</v>
@@ -63174,7 +63174,7 @@
         <v>-122.39210300000001</v>
       </c>
       <c r="DY156" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="DZ156">
         <v>-122.3920593261719</v>
@@ -68413,7 +68413,7 @@
         <v>-122.672797</v>
       </c>
       <c r="DY170" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="DZ170">
         <v>-122.672721862793</v>
@@ -69879,7 +69879,7 @@
         <v>-122.543958</v>
       </c>
       <c r="DY174" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="DZ174">
         <v>-122.5439758300781</v>
@@ -81515,7 +81515,7 @@
         <v>-91.193256000000005</v>
       </c>
       <c r="DY205" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="DZ205">
         <v>-91.193931579589844</v>
@@ -81871,7 +81871,7 @@
         <v>-91.200091999999998</v>
       </c>
       <c r="DY206" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="DZ206">
         <v>-91.200271606445313</v>
@@ -84779,7 +84779,7 @@
         <v>-95.146358000000006</v>
       </c>
       <c r="DY214" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="DZ214">
         <v>-95.146347045898438</v>
@@ -89252,7 +89252,7 @@
         <v>-76.334318999999994</v>
       </c>
       <c r="DY226" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="DZ226">
         <v>-76.334365844726563</v>
@@ -94823,15 +94823,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074E1BED7378CC440B292AB61565842D8" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4adef607eb1dec6f18446f5128754630">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="92033487-9790-4752-add8-54a605a04579" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="59afdbf67838897ed3c43d3ccefac882" ns2:_="">
     <xsd:import namespace="92033487-9790-4752-add8-54a605a04579"/>
@@ -94975,6 +94966,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -94982,14 +94982,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A913E3DB-D3B9-4325-B1AA-B498EB63D5DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E88B779-5FF8-42DB-AC72-64077213B365}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -95007,6 +94999,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A913E3DB-D3B9-4325-B1AA-B498EB63D5DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4C0AED7-E960-447F-98B6-3FD34E129AC2}">
   <ds:schemaRefs>
